--- a/College/Lab Work/Table.xlsx
+++ b/College/Lab Work/Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kripe\Documents\Office Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\School\College\Lab Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Клиенты" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>Название фирмы</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Улица</t>
   </si>
   <si>
-    <t>Телефакс</t>
-  </si>
-  <si>
     <t>Телефон</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>Оформил(а)</t>
   </si>
   <si>
-    <t>Мафиозник Иван</t>
-  </si>
-  <si>
     <t>Март</t>
   </si>
   <si>
@@ -396,6 +390,96 @@
   </si>
   <si>
     <t>Асем</t>
+  </si>
+  <si>
+    <t>Дакенов</t>
+  </si>
+  <si>
+    <t>Сериков</t>
+  </si>
+  <si>
+    <t>Карибаев</t>
+  </si>
+  <si>
+    <t>Кошимбаев</t>
+  </si>
+  <si>
+    <t>Сарсенова</t>
+  </si>
+  <si>
+    <t>Кошкинбав</t>
+  </si>
+  <si>
+    <t>Сабуров</t>
+  </si>
+  <si>
+    <t>Мауленова</t>
+  </si>
+  <si>
+    <t>Даутлебаев</t>
+  </si>
+  <si>
+    <t>Чингизов</t>
+  </si>
+  <si>
+    <t>Салимова</t>
+  </si>
+  <si>
+    <t>Акынов</t>
+  </si>
+  <si>
+    <t>Мапенов</t>
+  </si>
+  <si>
+    <t>Астана</t>
+  </si>
+  <si>
+    <t>Атырау</t>
+  </si>
+  <si>
+    <t>Алматы</t>
+  </si>
+  <si>
+    <t>Семей</t>
+  </si>
+  <si>
+    <t>Шымкент</t>
+  </si>
+  <si>
+    <t>Пушкина 45</t>
+  </si>
+  <si>
+    <t>Факс</t>
+  </si>
+  <si>
+    <t>Компьютер Pentum-1</t>
+  </si>
+  <si>
+    <t>Компьютер Pentum-2</t>
+  </si>
+  <si>
+    <t>Компьютер Pentum-3</t>
+  </si>
+  <si>
+    <t>Компьютер Pentum-4</t>
+  </si>
+  <si>
+    <t>Компьютер Pentum-5-100</t>
+  </si>
+  <si>
+    <t>Принтер лазерный HP</t>
+  </si>
+  <si>
+    <t>Принтер лазерный Samsung</t>
+  </si>
+  <si>
+    <t>Принтер струйный HP</t>
+  </si>
+  <si>
+    <t>Принтер матричный Epson</t>
+  </si>
+  <si>
+    <t>Принтер матричный Samsung</t>
   </si>
 </sst>
 </file>
@@ -408,7 +492,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0_ ;\-[$$-409]#,##0\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,15 +519,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="4"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,18 +569,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -581,6 +701,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -595,47 +840,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyFont="0" applyFill="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyFont="0" applyFill="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="10" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,15 +863,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3456,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3471,202 +3732,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="18">
+        <v>101</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="18">
+        <v>487956</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18">
+        <v>23632626</v>
+      </c>
+      <c r="H2" s="18">
+        <v>2623</v>
+      </c>
+      <c r="I2" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="18">
+        <v>151</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="18">
+        <v>62398</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2633262362</v>
+      </c>
+      <c r="H3" s="18">
+        <v>32626</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="18">
+        <v>202</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="18">
+        <v>63985</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="18">
+        <v>236236262</v>
+      </c>
+      <c r="H4" s="18">
+        <v>236263</v>
+      </c>
+      <c r="I4" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="18">
+        <v>202</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="18">
+        <v>489562</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="18">
+        <v>536953935</v>
+      </c>
+      <c r="H5" s="18">
+        <v>26326</v>
+      </c>
+      <c r="I5" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="18">
+        <v>121</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="18">
+        <v>58476</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="18">
+        <v>53953695369</v>
+      </c>
+      <c r="H6" s="18">
+        <v>23626</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="18">
+        <v>101</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="18">
+        <v>65239</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="18">
+        <v>5369539</v>
+      </c>
+      <c r="H7" s="18">
+        <v>236236</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="18">
+        <v>151</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="18">
+        <v>48526</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="18">
+        <v>427247542</v>
+      </c>
+      <c r="H8" s="18">
+        <v>35838</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="18">
+        <v>101</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="18">
+        <v>3256</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="18">
+        <v>425469429</v>
+      </c>
+      <c r="H9" s="18">
+        <v>348348</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="18">
+        <v>101</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="18">
+        <v>487652</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2527548</v>
+      </c>
+      <c r="H10" s="18">
+        <v>348438</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="18">
+        <v>101</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="18">
+        <v>65871</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="18">
+        <v>23745929</v>
+      </c>
+      <c r="H11" s="18">
+        <v>43593</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B12" s="18">
+        <v>151</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="18">
+        <v>65214</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="18">
+        <v>4258495469</v>
+      </c>
+      <c r="H12" s="18">
+        <v>383</v>
+      </c>
+      <c r="I12" s="28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B13" s="18">
+        <v>151</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="18">
+        <v>69584</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="18">
+        <v>85485828</v>
+      </c>
+      <c r="H13" s="18">
+        <v>34838</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="8"/>
+      <c r="B14" s="18">
+        <v>151</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="18">
+        <v>69586</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="18">
+        <v>429482458</v>
+      </c>
+      <c r="H14" s="18">
+        <v>34838</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15"/>
@@ -3674,7 +4143,7 @@
   </sheetData>
   <autoFilter ref="A1:I15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3682,8 +4151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3694,124 +4163,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="21">
         <v>101</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="27">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="21">
         <v>102</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="27">
         <v>120</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="21">
         <v>103</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="27">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="21">
         <v>104</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="27">
         <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="21">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="27">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>106</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="A7" s="21">
+        <v>201</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="27">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>107</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="A8" s="21">
+        <v>202</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="27">
         <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>201</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="A9" s="21">
+        <v>203</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="27">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>202</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="21">
+        <v>204</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="27">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>203</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="A11" s="21">
+        <v>205</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="27">
         <v>800</v>
       </c>
     </row>
@@ -3825,1411 +4294,1411 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" customWidth="1"/>
     <col min="3" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="13"/>
-    <col min="12" max="12" width="14.85546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="14.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="18" t="str">
         <f>IF(ISBLANK(B2)," ",CHOOSE(MONTH(B2),"Январь","Февраль", "Март", "Апрель","Май","Июнь","Июль","Август","Сентябрь","Октябрь","Ноябрь","Декабрь"))</f>
         <v>Январь</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="24">
         <v>39449</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="18">
         <v>101</v>
       </c>
-      <c r="E2" s="4" t="str">
+      <c r="E2" s="18" t="str">
         <f>IF(D2=" "," ",LOOKUP(D2,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i5 9400f</v>
-      </c>
-      <c r="F2" s="4">
+        <v>Компьютер Pentum-1</v>
+      </c>
+      <c r="F2" s="18">
         <v>2</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="19">
         <f>IF($D2=" ", " ", LOOKUP(D2,Товары!A:A,Товары!C:C))</f>
         <v>100</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="18">
         <v>101</v>
       </c>
-      <c r="I2" s="4" t="e">
-        <f t="shared" ref="I2:I31" si="0">IF(H2=" "," ",LOOKUP($H2,Код, Фирма))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="I2" s="18" t="str">
+        <f>IF(H2=" "," ",LOOKUP($H2,Код, Фирма))</f>
+        <v>КазМыс</v>
+      </c>
+      <c r="J2" s="19">
         <f>IF(F2=" "," ",F2*G2)</f>
         <v>200</v>
       </c>
-      <c r="K2" s="33" t="e">
+      <c r="K2" s="20">
         <f>IF(H2=" "," ",LOOKUP($H2,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L2" s="15" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="19">
         <f>IF(J2=" "," ",J2-J2*K2)</f>
-        <v>#N/A</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="str">
-        <f t="shared" ref="A3:A31" si="1">IF(ISBLANK(B3)," ",CHOOSE(MONTH(B3),"Январь","Февраль", "Март", "Апрель","Май","Июнь","Июль","Август","Сентябрь","Октябрь","Ноябрь","Декабрь"))</f>
+      <c r="A3" s="18" t="str">
+        <f t="shared" ref="A3:A31" si="0">IF(ISBLANK(B3)," ",CHOOSE(MONTH(B3),"Январь","Февраль", "Март", "Апрель","Май","Июнь","Июль","Август","Сентябрь","Октябрь","Ноябрь","Декабрь"))</f>
         <v>Январь</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="24">
         <v>39469</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="18">
         <v>102</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="18" t="str">
         <f>IF(D3=" "," ",LOOKUP(D3,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i5 10400f</v>
-      </c>
-      <c r="F3" s="4">
+        <v>Компьютер Pentum-2</v>
+      </c>
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="19">
         <f>IF($D3=" ", " ", LOOKUP(D3,Товары!A:A,Товары!C:C))</f>
         <v>120</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="18">
         <v>105</v>
       </c>
-      <c r="I3" s="4" t="e">
+      <c r="I3" s="18" t="str">
+        <f>IF(H3=" "," ",LOOKUP($H3,Код, Фирма))</f>
+        <v>КазМыс</v>
+      </c>
+      <c r="J3" s="19">
+        <f t="shared" ref="J3:J31" si="1">IF(F3=" "," ",F3*G3)</f>
+        <v>120</v>
+      </c>
+      <c r="K3" s="20">
+        <f>IF(H3=" "," ",LOOKUP($H3,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="19">
+        <f t="shared" ref="L3:L31" si="2">IF(J3=" "," ",J3-J3*K3)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J31" si="2">IF(F3=" "," ",F3*G3)</f>
-        <v>120</v>
-      </c>
-      <c r="K3" s="33" t="e">
-        <f>IF(H3=" "," ",LOOKUP($H3,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" s="15" t="e">
-        <f t="shared" ref="L3:L31" si="3">IF(J3=" "," ",J3-J3*K3)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>Январь</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="24">
         <v>39452</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="18">
         <v>103</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="18" t="str">
         <f>IF(D4=" "," ",LOOKUP(D4,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i7 12400f</v>
-      </c>
-      <c r="F4" s="4">
+        <v>Компьютер Pentum-3</v>
+      </c>
+      <c r="F4" s="18">
         <v>3</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="19">
         <f>IF($D4=" ", " ", LOOKUP(D4,Товары!A:A,Товары!C:C))</f>
         <v>200</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="18">
         <v>108</v>
       </c>
-      <c r="I4" s="4" t="e">
+      <c r="I4" s="18" t="str">
+        <f t="shared" ref="I2:I31" si="3">IF(H4=" "," ",LOOKUP($H4,Код, Фирма))</f>
+        <v>КазМыс</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="K4" s="20">
+        <f>IF(H4=" "," ",LOOKUP($H4,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="19">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="15">
+        <v>Январь</v>
+      </c>
+      <c r="B5" s="24">
+        <v>39450</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="18">
+        <v>202</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f>IF(D5=" "," ",LOOKUP(D5,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер лазерный Samsung</v>
+      </c>
+      <c r="F5" s="18">
+        <v>12</v>
+      </c>
+      <c r="G5" s="19">
+        <f>IF($D5=" ", " ", LOOKUP(D5,Товары!A:A,Товары!C:C))</f>
+        <v>800</v>
+      </c>
+      <c r="H5" s="18">
+        <v>105</v>
+      </c>
+      <c r="I5" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="1"/>
+        <v>9600</v>
+      </c>
+      <c r="K5" s="20">
+        <f>IF(H5=" "," ",LOOKUP($H5,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="19">
         <f t="shared" si="2"/>
-        <v>600</v>
-      </c>
-      <c r="K4" s="33" t="e">
-        <f>IF(H4=" "," ",LOOKUP($H4,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="15" t="e">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Январь</v>
+      </c>
+      <c r="B6" s="24">
+        <v>39459</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="18">
+        <v>201</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f>IF(D6=" "," ",LOOKUP(D6,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер лазерный HP</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
+        <f>IF($D6=" ", " ", LOOKUP(D6,Товары!A:A,Товары!C:C))</f>
+        <v>500</v>
+      </c>
+      <c r="H6" s="18">
+        <v>107</v>
+      </c>
+      <c r="I6" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
+        <v>КазМыс</v>
+      </c>
+      <c r="J6" s="19">
         <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="K6" s="20">
+        <f>IF(H6=" "," ",LOOKUP($H6,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>Январь</v>
       </c>
-      <c r="B5" s="14">
-        <v>39450</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4">
-        <v>202</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f>IF(D5=" "," ",LOOKUP(D5,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 2070 super</v>
-      </c>
-      <c r="F5" s="4">
-        <v>12</v>
-      </c>
-      <c r="G5" s="15">
-        <f>IF($D5=" ", " ", LOOKUP(D5,Товары!A:A,Товары!C:C))</f>
+      <c r="B7" s="24">
+        <v>39457</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="18">
+        <v>203</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f>IF(D7=" "," ",LOOKUP(D7,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер струйный HP</v>
+      </c>
+      <c r="F7" s="18">
+        <v>75</v>
+      </c>
+      <c r="G7" s="19">
+        <f>IF($D7=" ", " ", LOOKUP(D7,Товары!A:A,Товары!C:C))</f>
+        <v>150</v>
+      </c>
+      <c r="H7" s="18">
+        <v>114</v>
+      </c>
+      <c r="I7" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="1"/>
+        <v>11250</v>
+      </c>
+      <c r="K7" s="20">
+        <f>IF(H7=" "," ",LOOKUP($H7,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="2"/>
+        <v>10125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Январь</v>
+      </c>
+      <c r="B8" s="24">
+        <v>39451</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="18">
+        <v>107</v>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f>IF(D8=" "," ",LOOKUP(D8,Товары!A:A,Товары!B:B))</f>
+        <v>Компьютер Pentum-5-100</v>
+      </c>
+      <c r="F8" s="18">
+        <v>76</v>
+      </c>
+      <c r="G8" s="19">
+        <f>IF($D8=" ", " ", LOOKUP(D8,Товары!A:A,Товары!C:C))</f>
         <v>400</v>
       </c>
-      <c r="H5" s="4">
-        <v>105</v>
-      </c>
-      <c r="I5" s="4" t="e">
+      <c r="H8" s="18">
+        <v>113</v>
+      </c>
+      <c r="I8" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="1"/>
+        <v>30400</v>
+      </c>
+      <c r="K8" s="20">
+        <f>IF(H8=" "," ",LOOKUP($H8,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="2"/>
+        <v>27360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="15">
+        <v>Январь</v>
+      </c>
+      <c r="B9" s="24">
+        <v>39477</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="18">
+        <v>106</v>
+      </c>
+      <c r="E9" s="18" t="str">
+        <f>IF(D9=" "," ",LOOKUP(D9,Товары!A:A,Товары!B:B))</f>
+        <v>Компьютер Pentum-5-100</v>
+      </c>
+      <c r="F9" s="18">
+        <v>87</v>
+      </c>
+      <c r="G9" s="19">
+        <f>IF($D9=" ", " ", LOOKUP(D9,Товары!A:A,Товары!C:C))</f>
+        <v>400</v>
+      </c>
+      <c r="H9" s="18">
+        <v>112</v>
+      </c>
+      <c r="I9" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="1"/>
+        <v>34800</v>
+      </c>
+      <c r="K9" s="20">
+        <f>IF(H9=" "," ",LOOKUP($H9,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="19">
         <f t="shared" si="2"/>
-        <v>4800</v>
-      </c>
-      <c r="K5" s="33" t="e">
-        <f>IF(H5=" "," ",LOOKUP($H5,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <v>31320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>Январь</v>
       </c>
-      <c r="B6" s="14">
-        <v>39459</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4">
-        <v>201</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f>IF(D6=" "," ",LOOKUP(D6,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 1080 ti</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="15">
-        <f>IF($D6=" ", " ", LOOKUP(D6,Товары!A:A,Товары!C:C))</f>
-        <v>150</v>
-      </c>
-      <c r="H6" s="4">
-        <v>107</v>
-      </c>
-      <c r="I6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="K6" s="33" t="e">
-        <f>IF(H6=" "," ",LOOKUP($H6,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Январь</v>
-      </c>
-      <c r="B7" s="14">
-        <v>39457</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4">
-        <v>203</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f>IF(D7=" "," ",LOOKUP(D7,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 3070</v>
-      </c>
-      <c r="F7" s="4">
-        <v>75</v>
-      </c>
-      <c r="G7" s="15">
-        <f>IF($D7=" ", " ", LOOKUP(D7,Товары!A:A,Товары!C:C))</f>
-        <v>800</v>
-      </c>
-      <c r="H7" s="4">
-        <v>114</v>
-      </c>
-      <c r="I7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="2"/>
-        <v>60000</v>
-      </c>
-      <c r="K7" s="33" t="e">
-        <f>IF(H7=" "," ",LOOKUP($H7,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Январь</v>
-      </c>
-      <c r="B8" s="14">
-        <v>39451</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4">
-        <v>107</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f>IF(D8=" "," ",LOOKUP(D8,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i9 13900f</v>
-      </c>
-      <c r="F8" s="4">
-        <v>76</v>
-      </c>
-      <c r="G8" s="15">
-        <f>IF($D8=" ", " ", LOOKUP(D8,Товары!A:A,Товары!C:C))</f>
-        <v>800</v>
-      </c>
-      <c r="H8" s="4">
-        <v>113</v>
-      </c>
-      <c r="I8" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="2"/>
-        <v>60800</v>
-      </c>
-      <c r="K8" s="33" t="e">
-        <f>IF(H8=" "," ",LOOKUP($H8,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Январь</v>
-      </c>
-      <c r="B9" s="14">
-        <v>39477</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B10" s="24">
+        <v>39458</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4">
-        <v>106</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f>IF(D9=" "," ",LOOKUP(D9,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i9 12900kf</v>
-      </c>
-      <c r="F9" s="4">
-        <v>87</v>
-      </c>
-      <c r="G9" s="15">
-        <f>IF($D9=" ", " ", LOOKUP(D9,Товары!A:A,Товары!C:C))</f>
-        <v>500</v>
-      </c>
-      <c r="H9" s="4">
-        <v>112</v>
-      </c>
-      <c r="I9" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="15">
-        <f t="shared" si="2"/>
-        <v>43500</v>
-      </c>
-      <c r="K9" s="33" t="e">
-        <f>IF(H9=" "," ",LOOKUP($H9,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Январь</v>
-      </c>
-      <c r="B10" s="14">
-        <v>39458</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="D10" s="18">
         <v>104</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="18" t="str">
         <f>IF(D10=" "," ",LOOKUP(D10,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i7 13700k</v>
-      </c>
-      <c r="F10" s="4">
+        <v>Компьютер Pentum-4</v>
+      </c>
+      <c r="F10" s="18">
         <v>34</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="19">
         <f>IF($D10=" ", " ", LOOKUP(D10,Товары!A:A,Товары!C:C))</f>
         <v>250</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="18">
         <v>113</v>
       </c>
-      <c r="I10" s="4" t="e">
+      <c r="I10" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="1"/>
+        <v>8500</v>
+      </c>
+      <c r="K10" s="20">
+        <f>IF(H10=" "," ",LOOKUP($H10,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="2"/>
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="2"/>
-        <v>8500</v>
-      </c>
-      <c r="K10" s="33" t="e">
-        <f>IF(H10=" "," ",LOOKUP($H10,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>Январь</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="24">
         <v>39456</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="C11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="26">
         <v>104</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="18" t="str">
         <f>IF(D11=" "," ",LOOKUP(D11,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i7 13700k</v>
-      </c>
-      <c r="F11" s="4">
+        <v>Компьютер Pentum-4</v>
+      </c>
+      <c r="F11" s="18">
         <v>100</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="19">
         <f>IF($D11=" ", " ", LOOKUP(D11,Товары!A:A,Товары!C:C))</f>
         <v>250</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="18">
         <v>104</v>
       </c>
-      <c r="I11" s="4" t="e">
+      <c r="I11" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+      <c r="K11" s="20">
+        <f>IF(H11=" "," ",LOOKUP($H11,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="2"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="2"/>
-        <v>25000</v>
-      </c>
-      <c r="K11" s="33" t="e">
-        <f>IF(H11=" "," ",LOOKUP($H11,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>Февраль</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="24">
         <v>39482</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="18">
         <v>103</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="18" t="str">
         <f>IF(D12=" "," ",LOOKUP(D12,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i7 12400f</v>
-      </c>
-      <c r="F12" s="4">
+        <v>Компьютер Pentum-3</v>
+      </c>
+      <c r="F12" s="18">
         <v>140</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="19">
         <f>IF($D12=" ", " ", LOOKUP(D12,Товары!A:A,Товары!C:C))</f>
         <v>200</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="18">
         <v>104</v>
       </c>
-      <c r="I12" s="4" t="e">
+      <c r="I12" s="18" t="str">
+        <f>IF(H12=" "," ",LOOKUP($H12,Код, Фирма))</f>
+        <v>КазМыс</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="1"/>
+        <v>28000</v>
+      </c>
+      <c r="K12" s="20">
+        <f>IF(H12=" "," ",LOOKUP($H12,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="2"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="2"/>
-        <v>28000</v>
-      </c>
-      <c r="K12" s="33" t="e">
-        <f>IF(H12=" "," ",LOOKUP($H12,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>Февраль</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="24">
         <v>39484</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="18">
         <v>102</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="18" t="str">
         <f>IF(D13=" "," ",LOOKUP(D13,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i5 10400f</v>
-      </c>
-      <c r="F13" s="4">
+        <v>Компьютер Pentum-2</v>
+      </c>
+      <c r="F13" s="18">
         <v>122</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="19">
         <f>IF($D13=" ", " ", LOOKUP(D13,Товары!A:A,Товары!C:C))</f>
         <v>120</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="18">
         <v>105</v>
       </c>
-      <c r="I13" s="4" t="e">
+      <c r="I13" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="1"/>
+        <v>14640</v>
+      </c>
+      <c r="K13" s="20">
+        <f>IF(H13=" "," ",LOOKUP($H13,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="2"/>
+        <v>13176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="2"/>
-        <v>14640</v>
-      </c>
-      <c r="K13" s="33" t="e">
-        <f>IF(H13=" "," ",LOOKUP($H13,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>Февраль</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="24">
         <v>39490</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="18">
         <v>102</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="18" t="str">
         <f>IF(D14=" "," ",LOOKUP(D14,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i5 10400f</v>
-      </c>
-      <c r="F14" s="4">
+        <v>Компьютер Pentum-2</v>
+      </c>
+      <c r="F14" s="18">
         <v>54</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="19">
         <f>IF($D14=" ", " ", LOOKUP(D14,Товары!A:A,Товары!C:C))</f>
         <v>120</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="18">
         <v>106</v>
       </c>
-      <c r="I14" s="4" t="e">
+      <c r="I14" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="1"/>
+        <v>6480</v>
+      </c>
+      <c r="K14" s="20">
+        <f>IF(H14=" "," ",LOOKUP($H14,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="2"/>
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="15">
+        <v>Февраль</v>
+      </c>
+      <c r="B15" s="24">
+        <v>39500</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="18">
+        <v>202</v>
+      </c>
+      <c r="E15" s="18" t="str">
+        <f>IF(D15=" "," ",LOOKUP(D15,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер лазерный Samsung</v>
+      </c>
+      <c r="F15" s="18">
+        <v>60</v>
+      </c>
+      <c r="G15" s="19">
+        <f>IF($D15=" ", " ", LOOKUP(D15,Товары!A:A,Товары!C:C))</f>
+        <v>800</v>
+      </c>
+      <c r="H15" s="18">
+        <v>108</v>
+      </c>
+      <c r="I15" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="1"/>
+        <v>48000</v>
+      </c>
+      <c r="K15" s="20">
+        <f>IF(H15=" "," ",LOOKUP($H15,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="19">
         <f t="shared" si="2"/>
-        <v>6480</v>
-      </c>
-      <c r="K14" s="33" t="e">
-        <f>IF(H14=" "," ",LOOKUP($H14,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="15" t="e">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Февраль</v>
+      </c>
+      <c r="B16" s="24">
+        <v>39493</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="18">
+        <v>203</v>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f>IF(D16=" "," ",LOOKUP(D16,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер струйный HP</v>
+      </c>
+      <c r="F16" s="18">
+        <v>34</v>
+      </c>
+      <c r="G16" s="19">
+        <f>IF($D16=" ", " ", LOOKUP(D16,Товары!A:A,Товары!C:C))</f>
+        <v>150</v>
+      </c>
+      <c r="H16" s="18">
+        <v>106</v>
+      </c>
+      <c r="I16" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
+        <v>КазМыс</v>
+      </c>
+      <c r="J16" s="19">
         <f t="shared" si="1"/>
+        <v>5100</v>
+      </c>
+      <c r="K16" s="20">
+        <f>IF(H16=" "," ",LOOKUP($H16,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" si="2"/>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>Февраль</v>
       </c>
-      <c r="B15" s="14">
-        <v>39500</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="4">
-        <v>202</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f>IF(D15=" "," ",LOOKUP(D15,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 2070 super</v>
-      </c>
-      <c r="F15" s="4">
-        <v>60</v>
-      </c>
-      <c r="G15" s="15">
-        <f>IF($D15=" ", " ", LOOKUP(D15,Товары!A:A,Товары!C:C))</f>
+      <c r="B17" s="24">
+        <v>39504</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="18">
+        <v>203</v>
+      </c>
+      <c r="E17" s="18" t="str">
+        <f>IF(D17=" "," ",LOOKUP(D17,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер струйный HP</v>
+      </c>
+      <c r="F17" s="18">
+        <v>55</v>
+      </c>
+      <c r="G17" s="19">
+        <f>IF($D17=" ", " ", LOOKUP(D17,Товары!A:A,Товары!C:C))</f>
+        <v>150</v>
+      </c>
+      <c r="H17" s="18">
+        <v>102</v>
+      </c>
+      <c r="I17" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="1"/>
+        <v>8250</v>
+      </c>
+      <c r="K17" s="20">
+        <f>IF(H17=" "," ",LOOKUP($H17,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" si="2"/>
+        <v>7425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Февраль</v>
+      </c>
+      <c r="B18" s="24">
+        <v>39505</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="18">
+        <v>203</v>
+      </c>
+      <c r="E18" s="18" t="str">
+        <f>IF(D18=" "," ",LOOKUP(D18,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер струйный HP</v>
+      </c>
+      <c r="F18" s="18">
+        <v>66</v>
+      </c>
+      <c r="G18" s="19">
+        <f>IF($D18=" ", " ", LOOKUP(D18,Товары!A:A,Товары!C:C))</f>
+        <v>150</v>
+      </c>
+      <c r="H18" s="18">
+        <v>105</v>
+      </c>
+      <c r="I18" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" si="1"/>
+        <v>9900</v>
+      </c>
+      <c r="K18" s="20">
+        <f>IF(H18=" "," ",LOOKUP($H18,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="19">
+        <f t="shared" si="2"/>
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Февраль</v>
+      </c>
+      <c r="B19" s="24">
+        <v>39501</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="18">
+        <v>107</v>
+      </c>
+      <c r="E19" s="18" t="str">
+        <f>IF(D19=" "," ",LOOKUP(D19,Товары!A:A,Товары!B:B))</f>
+        <v>Компьютер Pentum-5-100</v>
+      </c>
+      <c r="F19" s="18">
+        <v>134</v>
+      </c>
+      <c r="G19" s="19">
+        <f>IF($D19=" ", " ", LOOKUP(D19,Товары!A:A,Товары!C:C))</f>
         <v>400</v>
       </c>
-      <c r="H15" s="4">
-        <v>108</v>
-      </c>
-      <c r="I15" s="4" t="e">
+      <c r="H19" s="18">
+        <v>104</v>
+      </c>
+      <c r="I19" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="1"/>
+        <v>53600</v>
+      </c>
+      <c r="K19" s="20">
+        <f>IF(H19=" "," ",LOOKUP($H19,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="2"/>
+        <v>48240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="15">
+        <v>Февраль</v>
+      </c>
+      <c r="B20" s="24">
+        <v>39479</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="18">
+        <v>106</v>
+      </c>
+      <c r="E20" s="18" t="str">
+        <f>IF(D20=" "," ",LOOKUP(D20,Товары!A:A,Товары!B:B))</f>
+        <v>Компьютер Pentum-5-100</v>
+      </c>
+      <c r="F20" s="18">
+        <v>90</v>
+      </c>
+      <c r="G20" s="19">
+        <f>IF($D20=" ", " ", LOOKUP(D20,Товары!A:A,Товары!C:C))</f>
+        <v>400</v>
+      </c>
+      <c r="H20" s="18">
+        <v>106</v>
+      </c>
+      <c r="I20" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="K20" s="20">
+        <f>IF(H20=" "," ",LOOKUP($H20,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="19">
         <f t="shared" si="2"/>
-        <v>24000</v>
-      </c>
-      <c r="K15" s="33" t="e">
-        <f>IF(H15=" "," ",LOOKUP($H15,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Февраль</v>
-      </c>
-      <c r="B16" s="14">
-        <v>39493</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4">
-        <v>203</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f>IF(D16=" "," ",LOOKUP(D16,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 3070</v>
-      </c>
-      <c r="F16" s="4">
-        <v>34</v>
-      </c>
-      <c r="G16" s="15">
-        <f>IF($D16=" ", " ", LOOKUP(D16,Товары!A:A,Товары!C:C))</f>
-        <v>800</v>
-      </c>
-      <c r="H16" s="4">
-        <v>106</v>
-      </c>
-      <c r="I16" s="4" t="e">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="2"/>
-        <v>27200</v>
-      </c>
-      <c r="K16" s="33" t="e">
-        <f>IF(H16=" "," ",LOOKUP($H16,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Февраль</v>
-      </c>
-      <c r="B17" s="14">
-        <v>39504</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="4">
-        <v>203</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f>IF(D17=" "," ",LOOKUP(D17,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 3070</v>
-      </c>
-      <c r="F17" s="4">
-        <v>55</v>
-      </c>
-      <c r="G17" s="15">
-        <f>IF($D17=" ", " ", LOOKUP(D17,Товары!A:A,Товары!C:C))</f>
-        <v>800</v>
-      </c>
-      <c r="H17" s="4">
+        <v>Март</v>
+      </c>
+      <c r="B21" s="24">
+        <v>39509</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="18">
         <v>102</v>
       </c>
-      <c r="I17" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" s="15">
-        <f t="shared" si="2"/>
-        <v>44000</v>
-      </c>
-      <c r="K17" s="33" t="e">
-        <f>IF(H17=" "," ",LOOKUP($H17,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Февраль</v>
-      </c>
-      <c r="B18" s="14">
-        <v>39505</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4">
-        <v>203</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f>IF(D18=" "," ",LOOKUP(D18,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 3070</v>
-      </c>
-      <c r="F18" s="4">
-        <v>66</v>
-      </c>
-      <c r="G18" s="15">
-        <f>IF($D18=" ", " ", LOOKUP(D18,Товары!A:A,Товары!C:C))</f>
-        <v>800</v>
-      </c>
-      <c r="H18" s="4">
-        <v>105</v>
-      </c>
-      <c r="I18" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="2"/>
-        <v>52800</v>
-      </c>
-      <c r="K18" s="33" t="e">
-        <f>IF(H18=" "," ",LOOKUP($H18,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Февраль</v>
-      </c>
-      <c r="B19" s="14">
-        <v>39501</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="4">
-        <v>107</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f>IF(D19=" "," ",LOOKUP(D19,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i9 13900f</v>
-      </c>
-      <c r="F19" s="4">
-        <v>134</v>
-      </c>
-      <c r="G19" s="15">
-        <f>IF($D19=" ", " ", LOOKUP(D19,Товары!A:A,Товары!C:C))</f>
-        <v>800</v>
-      </c>
-      <c r="H19" s="4">
-        <v>104</v>
-      </c>
-      <c r="I19" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="2"/>
-        <v>107200</v>
-      </c>
-      <c r="K19" s="33" t="e">
-        <f>IF(H19=" "," ",LOOKUP($H19,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Февраль</v>
-      </c>
-      <c r="B20" s="14">
-        <v>39479</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4">
-        <v>106</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f>IF(D20=" "," ",LOOKUP(D20,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i9 12900kf</v>
-      </c>
-      <c r="F20" s="4">
-        <v>90</v>
-      </c>
-      <c r="G20" s="15">
-        <f>IF($D20=" ", " ", LOOKUP(D20,Товары!A:A,Товары!C:C))</f>
-        <v>500</v>
-      </c>
-      <c r="H20" s="4">
-        <v>106</v>
-      </c>
-      <c r="I20" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="2"/>
-        <v>45000</v>
-      </c>
-      <c r="K20" s="33" t="e">
-        <f>IF(H20=" "," ",LOOKUP($H20,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Март</v>
-      </c>
-      <c r="B21" s="14">
-        <v>39509</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="4">
-        <v>102</v>
-      </c>
-      <c r="E21" s="4" t="str">
+      <c r="E21" s="18" t="str">
         <f>IF(D21=" "," ",LOOKUP(D21,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i5 10400f</v>
-      </c>
-      <c r="F21" s="4">
+        <v>Компьютер Pentum-2</v>
+      </c>
+      <c r="F21" s="18">
         <v>12</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="19">
         <f>IF($D21=" ", " ", LOOKUP(D21,Товары!A:A,Товары!C:C))</f>
         <v>120</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="18">
         <v>103</v>
       </c>
-      <c r="I21" s="4" t="e">
+      <c r="I21" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="K21" s="20">
+        <f>IF(H21=" "," ",LOOKUP($H21,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="19">
+        <f t="shared" si="2"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="2"/>
-        <v>1440</v>
-      </c>
-      <c r="K21" s="33" t="e">
-        <f>IF(H21=" "," ",LOOKUP($H21,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>Март</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="24">
         <v>39509</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="C22" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="18">
         <v>101</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E22" s="18" t="str">
         <f>IF(D22=" "," ",LOOKUP(D22,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i5 9400f</v>
-      </c>
-      <c r="F22" s="4">
+        <v>Компьютер Pentum-1</v>
+      </c>
+      <c r="F22" s="18">
         <v>30</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="19">
         <f>IF($D22=" ", " ", LOOKUP(D22,Товары!A:A,Товары!C:C))</f>
         <v>100</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="18">
         <v>101</v>
       </c>
-      <c r="I22" s="4" t="e">
+      <c r="I22" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="K22" s="20">
+        <f>IF(H22=" "," ",LOOKUP($H22,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="19">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="2"/>
-        <v>3000</v>
-      </c>
-      <c r="K22" s="33" t="e">
-        <f>IF(H22=" "," ",LOOKUP($H22,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>Март</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="24">
         <v>39510</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="18">
         <v>102</v>
       </c>
-      <c r="E23" s="4" t="str">
+      <c r="E23" s="18" t="str">
         <f>IF(D23=" "," ",LOOKUP(D23,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i5 10400f</v>
-      </c>
-      <c r="F23" s="4">
+        <v>Компьютер Pentum-2</v>
+      </c>
+      <c r="F23" s="18">
         <v>30</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="19">
         <f>IF($D23=" ", " ", LOOKUP(D23,Товары!A:A,Товары!C:C))</f>
         <v>120</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="18">
         <v>101</v>
       </c>
-      <c r="I23" s="4" t="e">
+      <c r="I23" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="K23" s="20">
+        <f>IF(H23=" "," ",LOOKUP($H23,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="19">
+        <f t="shared" si="2"/>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="2"/>
-        <v>3600</v>
-      </c>
-      <c r="K23" s="33" t="e">
-        <f>IF(H23=" "," ",LOOKUP($H23,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
-        <f t="shared" si="1"/>
         <v>Март</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="24">
         <v>39511</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="C24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="18">
         <v>105</v>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="E24" s="18" t="str">
         <f>IF(D24=" "," ",LOOKUP(D24,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i9 10900k</v>
-      </c>
-      <c r="F24" s="4">
+        <v>Компьютер Pentum-5-100</v>
+      </c>
+      <c r="F24" s="18">
         <v>70</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="19">
         <f>IF($D24=" ", " ", LOOKUP(D24,Товары!A:A,Товары!C:C))</f>
         <v>400</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="18">
         <v>102</v>
       </c>
-      <c r="I24" s="4" t="e">
+      <c r="I24" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J24" s="19">
+        <f t="shared" si="1"/>
+        <v>28000</v>
+      </c>
+      <c r="K24" s="20">
+        <f>IF(H24=" "," ",LOOKUP($H24,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L24" s="19">
+        <f t="shared" si="2"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" s="15">
+        <v>Март</v>
+      </c>
+      <c r="B25" s="24">
+        <v>39512</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="18">
+        <v>107</v>
+      </c>
+      <c r="E25" s="18" t="str">
+        <f>IF(D25=" "," ",LOOKUP(D25,Товары!A:A,Товары!B:B))</f>
+        <v>Компьютер Pentum-5-100</v>
+      </c>
+      <c r="F25" s="18">
+        <v>20</v>
+      </c>
+      <c r="G25" s="19">
+        <f>IF($D25=" ", " ", LOOKUP(D25,Товары!A:A,Товары!C:C))</f>
+        <v>400</v>
+      </c>
+      <c r="H25" s="18">
+        <v>104</v>
+      </c>
+      <c r="I25" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="K25" s="20">
+        <f>IF(H25=" "," ",LOOKUP($H25,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="19">
         <f t="shared" si="2"/>
-        <v>28000</v>
-      </c>
-      <c r="K24" s="33" t="e">
-        <f>IF(H24=" "," ",LOOKUP($H24,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" s="15" t="e">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Март</v>
+      </c>
+      <c r="B26" s="24">
+        <v>39513</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="18">
+        <v>201</v>
+      </c>
+      <c r="E26" s="18" t="str">
+        <f>IF(D26=" "," ",LOOKUP(D26,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер лазерный HP</v>
+      </c>
+      <c r="F26" s="18">
+        <v>25</v>
+      </c>
+      <c r="G26" s="19">
+        <f>IF($D26=" ", " ", LOOKUP(D26,Товары!A:A,Товары!C:C))</f>
+        <v>500</v>
+      </c>
+      <c r="H26" s="18">
+        <v>106</v>
+      </c>
+      <c r="I26" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
+        <v>КазМыс</v>
+      </c>
+      <c r="J26" s="19">
         <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="K26" s="20">
+        <f>IF(H26=" "," ",LOOKUP($H26,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" si="2"/>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>Март</v>
       </c>
-      <c r="B25" s="14">
-        <v>39512</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B27" s="24">
+        <v>39514</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="18">
         <v>107</v>
       </c>
-      <c r="E25" s="4" t="str">
-        <f>IF(D25=" "," ",LOOKUP(D25,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i9 13900f</v>
-      </c>
-      <c r="F25" s="4">
-        <v>20</v>
-      </c>
-      <c r="G25" s="15">
-        <f>IF($D25=" ", " ", LOOKUP(D25,Товары!A:A,Товары!C:C))</f>
+      <c r="E27" s="18" t="str">
+        <f>IF(D27=" "," ",LOOKUP(D27,Товары!A:A,Товары!B:B))</f>
+        <v>Компьютер Pentum-5-100</v>
+      </c>
+      <c r="F27" s="18">
+        <v>12</v>
+      </c>
+      <c r="G27" s="19">
+        <f>IF($D27=" ", " ", LOOKUP(D27,Товары!A:A,Товары!C:C))</f>
+        <v>400</v>
+      </c>
+      <c r="H27" s="18">
+        <v>107</v>
+      </c>
+      <c r="I27" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="K27" s="20">
+        <f>IF(H27=" "," ",LOOKUP($H27,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" si="2"/>
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Март</v>
+      </c>
+      <c r="B28" s="24">
+        <v>39515</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="18">
+        <v>202</v>
+      </c>
+      <c r="E28" s="18" t="str">
+        <f>IF(D28=" "," ",LOOKUP(D28,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер лазерный Samsung</v>
+      </c>
+      <c r="F28" s="18">
+        <v>57</v>
+      </c>
+      <c r="G28" s="19">
+        <f>IF($D28=" ", " ", LOOKUP(D28,Товары!A:A,Товары!C:C))</f>
         <v>800</v>
       </c>
-      <c r="H25" s="4">
-        <v>104</v>
-      </c>
-      <c r="I25" s="4" t="e">
+      <c r="H28" s="26">
+        <v>102</v>
+      </c>
+      <c r="I28" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" si="1"/>
+        <v>45600</v>
+      </c>
+      <c r="K28" s="20">
+        <f>IF(H28=" "," ",LOOKUP($H28,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="19">
+        <f t="shared" si="2"/>
+        <v>41040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" s="15">
+        <v>Март</v>
+      </c>
+      <c r="B29" s="24">
+        <v>39516</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="18">
+        <v>203</v>
+      </c>
+      <c r="E29" s="18" t="str">
+        <f>IF(D29=" "," ",LOOKUP(D29,Товары!A:A,Товары!B:B))</f>
+        <v>Принтер струйный HP</v>
+      </c>
+      <c r="F29" s="18">
+        <v>40</v>
+      </c>
+      <c r="G29" s="19">
+        <f>IF($D29=" ", " ", LOOKUP(D29,Товары!A:A,Товары!C:C))</f>
+        <v>150</v>
+      </c>
+      <c r="H29" s="18">
+        <v>103</v>
+      </c>
+      <c r="I29" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J29" s="19">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="K29" s="20">
+        <f>IF(H29=" "," ",LOOKUP($H29,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L29" s="19">
         <f t="shared" si="2"/>
-        <v>16000</v>
-      </c>
-      <c r="K25" s="33" t="e">
-        <f>IF(H25=" "," ",LOOKUP($H25,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" s="15" t="e">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Март</v>
+      </c>
+      <c r="B30" s="24">
+        <v>39517</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="18">
+        <v>107</v>
+      </c>
+      <c r="E30" s="18" t="str">
+        <f>IF(D30=" "," ",LOOKUP(D30,Товары!A:A,Товары!B:B))</f>
+        <v>Компьютер Pentum-5-100</v>
+      </c>
+      <c r="F30" s="18">
+        <v>35</v>
+      </c>
+      <c r="G30" s="19">
+        <f>IF($D30=" ", " ", LOOKUP(D30,Товары!A:A,Товары!C:C))</f>
+        <v>400</v>
+      </c>
+      <c r="H30" s="18">
+        <v>102</v>
+      </c>
+      <c r="I30" s="18" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="str">
+        <v>КазМыс</v>
+      </c>
+      <c r="J30" s="19">
         <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="K30" s="20">
+        <f>IF(H30=" "," ",LOOKUP($H30,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="19">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>Март</v>
       </c>
-      <c r="B26" s="14">
-        <v>39513</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4">
-        <v>201</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <f>IF(D26=" "," ",LOOKUP(D26,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 1080 ti</v>
-      </c>
-      <c r="F26" s="4">
-        <v>25</v>
-      </c>
-      <c r="G26" s="15">
-        <f>IF($D26=" ", " ", LOOKUP(D26,Товары!A:A,Товары!C:C))</f>
-        <v>150</v>
-      </c>
-      <c r="H26" s="4">
-        <v>106</v>
-      </c>
-      <c r="I26" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="2"/>
-        <v>3750</v>
-      </c>
-      <c r="K26" s="33" t="e">
-        <f>IF(H26=" "," ",LOOKUP($H26,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L26" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Март</v>
-      </c>
-      <c r="B27" s="14">
-        <v>39514</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="4">
-        <v>107</v>
-      </c>
-      <c r="E27" s="4" t="str">
-        <f>IF(D27=" "," ",LOOKUP(D27,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i9 13900f</v>
-      </c>
-      <c r="F27" s="4">
-        <v>12</v>
-      </c>
-      <c r="G27" s="15">
-        <f>IF($D27=" ", " ", LOOKUP(D27,Товары!A:A,Товары!C:C))</f>
-        <v>800</v>
-      </c>
-      <c r="H27" s="4">
-        <v>107</v>
-      </c>
-      <c r="I27" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="2"/>
-        <v>9600</v>
-      </c>
-      <c r="K27" s="33" t="e">
-        <f>IF(H27=" "," ",LOOKUP($H27,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Март</v>
-      </c>
-      <c r="B28" s="14">
-        <v>39515</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="4">
-        <v>202</v>
-      </c>
-      <c r="E28" s="4" t="str">
-        <f>IF(D28=" "," ",LOOKUP(D28,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 2070 super</v>
-      </c>
-      <c r="F28" s="4">
-        <v>57</v>
-      </c>
-      <c r="G28" s="15">
-        <f>IF($D28=" ", " ", LOOKUP(D28,Товары!A:A,Товары!C:C))</f>
-        <v>400</v>
-      </c>
-      <c r="H28" s="16">
-        <v>102</v>
-      </c>
-      <c r="I28" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J28" s="15">
-        <f t="shared" si="2"/>
-        <v>22800</v>
-      </c>
-      <c r="K28" s="33" t="e">
-        <f>IF(H28=" "," ",LOOKUP($H28,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Март</v>
-      </c>
-      <c r="B29" s="14">
-        <v>39516</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="4">
-        <v>203</v>
-      </c>
-      <c r="E29" s="4" t="str">
-        <f>IF(D29=" "," ",LOOKUP(D29,Товары!A:A,Товары!B:B))</f>
-        <v>Видеокарта geforce 3070</v>
-      </c>
-      <c r="F29" s="4">
-        <v>40</v>
-      </c>
-      <c r="G29" s="15">
-        <f>IF($D29=" ", " ", LOOKUP(D29,Товары!A:A,Товары!C:C))</f>
-        <v>800</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="B31" s="24">
+        <v>39518</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="18">
         <v>103</v>
       </c>
-      <c r="I29" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="2"/>
-        <v>32000</v>
-      </c>
-      <c r="K29" s="33" t="e">
-        <f>IF(H29=" "," ",LOOKUP($H29,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Март</v>
-      </c>
-      <c r="B30" s="14">
-        <v>39517</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="4">
-        <v>107</v>
-      </c>
-      <c r="E30" s="4" t="str">
-        <f>IF(D30=" "," ",LOOKUP(D30,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i9 13900f</v>
-      </c>
-      <c r="F30" s="4">
-        <v>35</v>
-      </c>
-      <c r="G30" s="15">
-        <f>IF($D30=" ", " ", LOOKUP(D30,Товары!A:A,Товары!C:C))</f>
-        <v>800</v>
-      </c>
-      <c r="H30" s="4">
-        <v>102</v>
-      </c>
-      <c r="I30" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" s="15">
-        <f t="shared" si="2"/>
-        <v>28000</v>
-      </c>
-      <c r="K30" s="33" t="e">
-        <f>IF(H30=" "," ",LOOKUP($H30,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L30" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Март</v>
-      </c>
-      <c r="B31" s="14">
-        <v>39518</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="4">
-        <v>103</v>
-      </c>
-      <c r="E31" s="4" t="str">
+      <c r="E31" s="18" t="str">
         <f>IF(D31=" "," ",LOOKUP(D31,Товары!A:A,Товары!B:B))</f>
-        <v>Процессор i7 12400f</v>
-      </c>
-      <c r="F31" s="4">
+        <v>Компьютер Pentum-3</v>
+      </c>
+      <c r="F31" s="18">
         <v>10</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="19">
         <f>IF($D31=" ", " ", LOOKUP(D31,Товары!A:A,Товары!C:C))</f>
         <v>200</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="18">
         <v>113</v>
       </c>
-      <c r="I31" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" s="15">
+      <c r="I31" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>КазМыс</v>
+      </c>
+      <c r="J31" s="19">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K31" s="20">
+        <f>IF(H31=" "," ",LOOKUP($H31,Код,Клиенты!I:I))</f>
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="19">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="K31" s="33" t="e">
-        <f>IF(H31=" "," ",LOOKUP($H31,Код,Клиенты!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L31" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -5239,195 +5708,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q17"/>
+  <dimension ref="B1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="D3" s="19" t="s">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="F2" s="32">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Дата))</f>
+        <v>39449</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="20">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Дата))</f>
-        <v>39449</v>
-      </c>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="str">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Заказы!I:I))</f>
+        <v>КазМыс</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="46">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Код2))</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="str">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Заказы!E:E))</f>
+        <v>Компьютер Pentum-1</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="37" t="e">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Заказы!I:I))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="21">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Код2))</f>
+      <c r="H4" s="46">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Номер2))</f>
         <v>101</v>
       </c>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="37" t="str">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Заказы!E:E))</f>
-        <v>Процессор i5 9400f</v>
-      </c>
-      <c r="F7" s="37"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="43">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Количество))</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Цена2))</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="43">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Сумма))</f>
+        <v>200</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="47">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Скидка2))</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="36">
+        <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Оплата))</f>
+        <v>180</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37" t="s">
+        <v>100</v>
+      </c>
       <c r="G7" s="37"/>
-      <c r="H7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="21">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Номер2))</f>
-        <v>101</v>
-      </c>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="21">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Количество))</f>
-        <v>2</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="21">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Цена2))</f>
-        <v>100</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="21">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Сумма))</f>
-        <v>200</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="30" t="e">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Скидка2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="31" t="e">
-        <f>IF(E3=" ", " ",LOOKUP(E3,Заказ,Оплата))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="22"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5446,9 +5867,9 @@
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17" style="19" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17" style="8" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="6" customWidth="1"/>
     <col min="6" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -5461,28 +5882,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>78</v>
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>25</v>
@@ -5490,13 +5911,13 @@
       <c r="D4">
         <v>3750</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>3300</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -5504,26 +5925,26 @@
       <c r="D5">
         <v>300</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="E6" s="12">
+      <c r="A6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="6">
         <v>3447</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>57</v>
@@ -5531,13 +5952,13 @@
       <c r="D7">
         <v>22800</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>20064</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>60</v>
@@ -5545,40 +5966,40 @@
       <c r="D8">
         <v>24000</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>15600</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="36">
+        <v>74</v>
+      </c>
+      <c r="C9" s="13">
         <v>12</v>
       </c>
       <c r="D9">
         <v>4800</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <v>4272</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="E10" s="12">
+      <c r="A10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="6">
         <v>39936</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -5586,13 +6007,13 @@
       <c r="D11">
         <v>32000</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>18240</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>34</v>
@@ -5600,7 +6021,7 @@
       <c r="D12">
         <v>27200</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>23936</v>
       </c>
     </row>
@@ -5611,7 +6032,7 @@
       <c r="D13">
         <v>44000</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>38720</v>
       </c>
     </row>
@@ -5622,13 +6043,13 @@
       <c r="D14">
         <v>52800</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>46992</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>75</v>
@@ -5636,26 +6057,26 @@
       <c r="D15">
         <v>60000</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="6">
         <v>40200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="E16" s="12">
+      <c r="A16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="6">
         <v>168088</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -5663,7 +6084,7 @@
       <c r="D17">
         <v>1440</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="6">
         <v>820.8</v>
       </c>
     </row>
@@ -5674,13 +6095,13 @@
       <c r="D18">
         <v>3600</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <v>3492</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>54</v>
@@ -5688,7 +6109,7 @@
       <c r="D19">
         <v>6480</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>5702.4</v>
       </c>
     </row>
@@ -5699,13 +6120,13 @@
       <c r="D20">
         <v>14640</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="6">
         <v>13029.6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5713,26 +6134,26 @@
       <c r="D21">
         <v>120</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <v>106.8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="E22" s="12">
+      <c r="A22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="6">
         <v>23151.599999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>30</v>
@@ -5740,13 +6161,13 @@
       <c r="D23">
         <v>3000</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="6">
         <v>2910</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5754,26 +6175,26 @@
       <c r="D24">
         <v>200</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="E25" s="12">
+      <c r="A25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="6">
         <v>3104</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -5781,13 +6202,13 @@
       <c r="D26">
         <v>2000</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="6">
         <v>1920</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>140</v>
@@ -5795,13 +6216,13 @@
       <c r="D27">
         <v>28000</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="6">
         <v>24640</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -5809,26 +6230,26 @@
       <c r="D28">
         <v>600</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="6">
         <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="E29" s="12">
+      <c r="A29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="6">
         <v>26950</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <v>34</v>
@@ -5836,7 +6257,7 @@
       <c r="D30">
         <v>8500</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="6">
         <v>8160</v>
       </c>
     </row>
@@ -5847,26 +6268,26 @@
       <c r="D31">
         <v>25000</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="6">
         <v>22000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="E32" s="12">
+      <c r="A32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="6">
         <v>30160</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>70</v>
@@ -5874,26 +6295,26 @@
       <c r="D33">
         <v>28000</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="6">
         <v>24640</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="E34" s="12">
+      <c r="A34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="6">
         <v>24640</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>90</v>
@@ -5901,13 +6322,13 @@
       <c r="D35">
         <v>45000</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="6">
         <v>39600</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <v>87</v>
@@ -5915,26 +6336,26 @@
       <c r="D36">
         <v>43500</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="6">
         <v>37410</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="E37" s="12">
+      <c r="A37" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="E37" s="6">
         <v>77010</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -5942,7 +6363,7 @@
       <c r="D38">
         <v>9600</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="6">
         <v>4704</v>
       </c>
     </row>
@@ -5953,7 +6374,7 @@
       <c r="D39">
         <v>16000</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="6">
         <v>14080</v>
       </c>
     </row>
@@ -5964,13 +6385,13 @@
       <c r="D40">
         <v>28000</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="6">
         <v>24640</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41">
         <v>134</v>
@@ -5978,13 +6399,13 @@
       <c r="D41">
         <v>107200</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="6">
         <v>94336</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>76</v>
@@ -5992,27 +6413,27 @@
       <c r="D42">
         <v>60800</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="6">
         <v>58368</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="E43" s="12">
+      <c r="A43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="6">
         <v>196128</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="E44" s="12">
+      <c r="A44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="6">
         <v>592614.6</v>
       </c>
     </row>

--- a/College/Lab Work/Table.xlsx
+++ b/College/Lab Work/Table.xlsx
@@ -890,13 +890,14 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -906,13 +907,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4295,7 +4295,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4470,7 +4470,7 @@
         <v>108</v>
       </c>
       <c r="I4" s="18" t="str">
-        <f t="shared" ref="I2:I31" si="3">IF(H4=" "," ",LOOKUP($H4,Код, Фирма))</f>
+        <f t="shared" ref="I4:I31" si="3">IF(H4=" "," ",LOOKUP($H4,Код, Фирма))</f>
         <v>КазМыс</v>
       </c>
       <c r="J4" s="19">
@@ -5743,79 +5743,79 @@
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40" t="str">
+      <c r="C3" s="37"/>
+      <c r="D3" s="43" t="str">
         <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Заказы!I:I))</f>
         <v>КазМыс</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="41">
         <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Код2))</f>
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="str">
+      <c r="C4" s="37"/>
+      <c r="D4" s="43" t="str">
         <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Заказы!E:E))</f>
         <v>Компьютер Pentum-1</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="41">
         <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Номер2))</f>
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="43">
+      <c r="C5" s="37"/>
+      <c r="D5" s="39">
         <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Количество))</f>
         <v>2</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39">
+      <c r="F5" s="43"/>
+      <c r="G5" s="37">
         <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Цена2))</f>
         <v>100</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="41" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="43">
+      <c r="C6" s="37"/>
+      <c r="D6" s="39">
         <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Сумма))</f>
         <v>200</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="47">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="42">
         <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Скидка2))</f>
         <v>0.1</v>
       </c>
@@ -5828,15 +5828,15 @@
         <f>IF(D2=" ", " ",LOOKUP(D2,Заказ,Оплата))</f>
         <v>180</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O10" s="9"/>
